--- a/medicine/Pharmacie/Classe_ATCvet_QI/Classe_ATCvet_QI.xlsx
+++ b/medicine/Pharmacie/Classe_ATCvet_QI/Classe_ATCvet_QI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATCvet QI, dénommée « produits immunologiques », est un groupe de la classification anatomique, thérapeutique et chimique vétérinaire, un système de code alphanumérique développé par l'OMS pour la classification des médicaments et autres produits médicaux à usage vétérinaire[1]. Ce groupe correspond en pharmacologie humaine à deux sous-groupes de la classe ATC J (anti-infectieux à usage systémique) : J06 (sérums et immunoglobulines) et J07 (vaccins).
-Les produits immunologiques sont répartis dans les sous-groupes suivants[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATCvet QI, dénommée « produits immunologiques », est un groupe de la classification anatomique, thérapeutique et chimique vétérinaire, un système de code alphanumérique développé par l'OMS pour la classification des médicaments et autres produits médicaux à usage vétérinaire. Ce groupe correspond en pharmacologie humaine à deux sous-groupes de la classe ATC J (anti-infectieux à usage systémique) : J06 (sérums et immunoglobulines) et J07 (vaccins).
+Les produits immunologiques sont répartis dans les sous-groupes suivants :
 QI01 : produits pour oiseaux
 QI02 : produits pour bovidés
 QI03 : produits pour caprins
@@ -496,7 +508,7 @@
 QI10 : produits pour poissons
 QI11 : produits pour rongeurs
 QI20 : produits pour d'autres espèces
-La méthode de subdivision employée pour ce groupe diffère de celle utilisée pour les autres groupes de la classification[1].
+La méthode de subdivision employée pour ce groupe diffère de celle utilisée pour les autres groupes de la classification.
 </t>
         </is>
       </c>
